--- a/PostOfficeWebApp/PostOffice.Web/UploadedFiles/Excels/task (Autosaved).xlsx
+++ b/PostOfficeWebApp/PostOffice.Web/UploadedFiles/Excels/task (Autosaved).xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thientt.bdst\Desktop\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Số tiền</t>
   </si>
@@ -41,28 +41,46 @@
     <t>Tên khách hàng</t>
   </si>
   <si>
-    <t>kh3</t>
-  </si>
-  <si>
-    <t>khách hàng 3</t>
-  </si>
-  <si>
-    <t>tk 3</t>
-  </si>
-  <si>
     <t>Mã khách hàng</t>
   </si>
   <si>
     <t>Mã nhân viên</t>
   </si>
   <si>
-    <t>st1</t>
+    <t>khách hàng 7</t>
+  </si>
+  <si>
+    <t>kh7</t>
+  </si>
+  <si>
+    <t>tk 7</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>khách hàng 8</t>
+  </si>
+  <si>
+    <t>kh8</t>
+  </si>
+  <si>
+    <t>tk 8</t>
+  </si>
+  <si>
+    <t>khách hàng 9</t>
+  </si>
+  <si>
+    <t>kh9</t>
+  </si>
+  <si>
+    <t>tk 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -128,8 +146,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -149,13 +167,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G2" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="Column5" dataDxfId="0"/>
     <tableColumn id="6" name="Column6"/>
     <tableColumn id="8" name="Column8"/>
   </tableColumns>
@@ -426,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -468,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
@@ -477,19 +495,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>42798</v>
+        <v>42859</v>
       </c>
       <c r="E2" s="7">
-        <v>-50000000</v>
+        <v>50000000</v>
       </c>
       <c r="F2" s="1">
         <v>7.0199999999999999E-2</v>
@@ -498,6 +516,52 @@
         <v>10</v>
       </c>
       <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>42860</v>
+      </c>
+      <c r="E3" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>42861</v>
+      </c>
+      <c r="E4" s="7">
+        <v>200000000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
